--- a/docs/ejemFormsActuales/PLANILLA COBRO 2016.xlsx
+++ b/docs/ejemFormsActuales/PLANILLA COBRO 2016.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11040" yWindow="1620" windowWidth="16275" windowHeight="10140" tabRatio="602"/>
+    <workbookView xWindow="-1600" yWindow="-21900" windowWidth="16280" windowHeight="9900" tabRatio="602"/>
   </bookViews>
   <sheets>
     <sheet name="ENERO 2016" sheetId="30" r:id="rId1"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ENERO 2016'!$A$4:$BE$4</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1324,11 +1324,11 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1337,7 +1337,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1421,7 +1421,7 @@
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -1437,7 +1437,7 @@
         <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1778,136 +1778,136 @@
     </xf>
   </cellXfs>
   <cellStyles count="131">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="99" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="101" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="103" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="105" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="107" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="109" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="111" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="113" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="115" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="117" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="119" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="123" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="125" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="127" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="129" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -2225,75 +2225,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BG183"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BE152" sqref="BE152"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="58.42578125" style="57" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="57" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.42578125" customWidth="1"/>
-    <col min="4" max="4" width="3.7109375" customWidth="1"/>
+    <col min="1" max="1" width="58.5" style="57" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" style="57" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5" customWidth="1"/>
+    <col min="4" max="4" width="3.6640625" customWidth="1"/>
     <col min="5" max="6" width="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.140625" style="6" customWidth="1"/>
-    <col min="18" max="18" width="5.28515625" style="6" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.1640625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="5.33203125" style="6" customWidth="1"/>
+    <col min="19" max="19" width="12.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.83203125" style="6" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="16" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" style="6" customWidth="1"/>
-    <col min="24" max="24" width="6.5703125" style="6" customWidth="1"/>
+    <col min="23" max="23" width="9.1640625" style="6" customWidth="1"/>
+    <col min="24" max="24" width="6.5" style="6" customWidth="1"/>
     <col min="25" max="26" width="14" style="6" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.140625" style="6" customWidth="1"/>
-    <col min="29" max="29" width="7.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.1640625" style="6" customWidth="1"/>
+    <col min="29" max="29" width="7.5" style="6" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="11" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.42578125" customWidth="1"/>
+    <col min="31" max="31" width="12.5" customWidth="1"/>
     <col min="32" max="32" width="11" style="8" bestFit="1" customWidth="1"/>
     <col min="33" max="34" width="11" customWidth="1"/>
-    <col min="35" max="35" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.140625" customWidth="1"/>
-    <col min="39" max="39" width="13.42578125" style="1" customWidth="1"/>
-    <col min="40" max="40" width="12.42578125" style="1" customWidth="1"/>
-    <col min="41" max="41" width="13.42578125" style="1" customWidth="1"/>
-    <col min="42" max="42" width="9.28515625" style="8" customWidth="1"/>
-    <col min="43" max="43" width="10.85546875" style="8" customWidth="1"/>
+    <col min="37" max="37" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.1640625" customWidth="1"/>
+    <col min="39" max="39" width="13.5" style="1" customWidth="1"/>
+    <col min="40" max="40" width="12.5" style="1" customWidth="1"/>
+    <col min="41" max="41" width="13.5" style="1" customWidth="1"/>
+    <col min="42" max="42" width="9.33203125" style="8" customWidth="1"/>
+    <col min="43" max="43" width="10.83203125" style="8" customWidth="1"/>
     <col min="44" max="44" width="10" style="8" customWidth="1"/>
-    <col min="45" max="45" width="9.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="12.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="9.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="11.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.83203125" style="8" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="16" style="8" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="9.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="9.5" style="8" bestFit="1" customWidth="1"/>
     <col min="52" max="53" width="14" style="8" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="9.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="9.140625" style="8" customWidth="1"/>
-    <col min="57" max="57" width="25.5703125" customWidth="1"/>
-    <col min="58" max="59" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="9.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="9.1640625" style="8" customWidth="1"/>
+    <col min="57" max="57" width="25.5" customWidth="1"/>
+    <col min="58" max="59" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:57" s="1" customFormat="1">
       <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:57" ht="15" thickBot="1">
       <c r="A2" s="79"/>
       <c r="B2" s="79"/>
       <c r="C2" s="39" t="s">
@@ -2529,7 +2529,7 @@
       </c>
       <c r="BE2" s="72"/>
     </row>
-    <row r="3" spans="1:57" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:57" s="1" customFormat="1" ht="15" thickBot="1">
       <c r="A3" s="80"/>
       <c r="B3" s="80"/>
       <c r="C3" s="81"/>
@@ -2642,7 +2642,7 @@
       </c>
       <c r="BE3" s="73"/>
     </row>
-    <row r="4" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A4" s="52"/>
       <c r="B4" s="52"/>
       <c r="C4" s="34"/>
@@ -2701,7 +2701,7 @@
       <c r="BD4" s="36"/>
       <c r="BE4" s="36"/>
     </row>
-    <row r="5" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A5" s="58" t="s">
         <v>61</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>293030</v>
       </c>
     </row>
-    <row r="6" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A6" s="14" t="s">
         <v>63</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>41006</v>
       </c>
     </row>
-    <row r="7" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A7" s="14" t="s">
         <v>65</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>87882</v>
       </c>
     </row>
-    <row r="8" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A8" s="14" t="s">
         <v>321</v>
       </c>
@@ -3301,7 +3301,7 @@
         <v>26639</v>
       </c>
     </row>
-    <row r="9" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A9" s="14" t="s">
         <v>67</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>26639</v>
       </c>
     </row>
-    <row r="10" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A10" s="64" t="s">
         <v>272</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>133196</v>
       </c>
     </row>
-    <row r="11" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A11" s="14" t="s">
         <v>69</v>
       </c>
@@ -3750,7 +3750,7 @@
         <v>26639</v>
       </c>
     </row>
-    <row r="12" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A12" s="14" t="s">
         <v>71</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>35520</v>
       </c>
     </row>
-    <row r="13" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A13" s="14" t="s">
         <v>73</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>35061</v>
       </c>
     </row>
-    <row r="14" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A14" s="14" t="s">
         <v>75</v>
       </c>
@@ -4199,7 +4199,7 @@
         <v>26639</v>
       </c>
     </row>
-    <row r="15" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A15" s="14" t="s">
         <v>77</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>187332</v>
       </c>
     </row>
-    <row r="16" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A16" s="14" t="s">
         <v>79</v>
       </c>
@@ -4499,7 +4499,7 @@
         <v>85244</v>
       </c>
     </row>
-    <row r="17" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A17" s="14" t="s">
         <v>81</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>35519</v>
       </c>
     </row>
-    <row r="18" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A18" s="14" t="s">
         <v>83</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>104780</v>
       </c>
     </row>
-    <row r="19" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A19" s="14" t="s">
         <v>85</v>
       </c>
@@ -4954,7 +4954,7 @@
         <v>103088</v>
       </c>
     </row>
-    <row r="20" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A20" s="14" t="s">
         <v>87</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>106557</v>
       </c>
     </row>
-    <row r="21" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A21" s="14" t="s">
         <v>89</v>
       </c>
@@ -5252,7 +5252,7 @@
         <v>390709</v>
       </c>
     </row>
-    <row r="22" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A22" s="14" t="s">
         <v>91</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>85244</v>
       </c>
     </row>
-    <row r="23" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A23" s="64" t="s">
         <v>274</v>
       </c>
@@ -5550,7 +5550,7 @@
         <v>42622</v>
       </c>
     </row>
-    <row r="24" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A24" s="64" t="s">
         <v>276</v>
       </c>
@@ -5701,7 +5701,7 @@
         <v>816934</v>
       </c>
     </row>
-    <row r="25" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A25" s="14" t="s">
         <v>93</v>
       </c>
@@ -5852,7 +5852,7 @@
         <v>62158</v>
       </c>
     </row>
-    <row r="26" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A26" s="14" t="s">
         <v>95</v>
       </c>
@@ -6001,7 +6001,7 @@
         <v>85244</v>
       </c>
     </row>
-    <row r="27" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A27" s="64" t="s">
         <v>343</v>
       </c>
@@ -6150,7 +6150,7 @@
         <v>31967</v>
       </c>
     </row>
-    <row r="28" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A28" s="64" t="s">
         <v>278</v>
       </c>
@@ -6301,7 +6301,7 @@
         <v>62158</v>
       </c>
     </row>
-    <row r="29" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A29" s="58" t="s">
         <v>97</v>
       </c>
@@ -6450,7 +6450,7 @@
         <v>26639</v>
       </c>
     </row>
-    <row r="30" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A30" s="14" t="s">
         <v>323</v>
       </c>
@@ -6599,7 +6599,7 @@
         <v>42622</v>
       </c>
     </row>
-    <row r="31" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A31" s="14" t="s">
         <v>99</v>
       </c>
@@ -6748,7 +6748,7 @@
         <v>53278</v>
       </c>
     </row>
-    <row r="32" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A32" s="14" t="s">
         <v>101</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>42622</v>
       </c>
     </row>
-    <row r="33" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A33" s="64" t="s">
         <v>280</v>
       </c>
@@ -7046,7 +7046,7 @@
         <v>106556</v>
       </c>
     </row>
-    <row r="34" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A34" s="14" t="s">
         <v>103</v>
       </c>
@@ -7195,7 +7195,7 @@
         <v>8880</v>
       </c>
     </row>
-    <row r="35" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A35" s="14" t="s">
         <v>105</v>
       </c>
@@ -7346,7 +7346,7 @@
         <v>172264</v>
       </c>
     </row>
-    <row r="36" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A36" s="14" t="s">
         <v>107</v>
       </c>
@@ -7497,7 +7497,7 @@
         <v>328549</v>
       </c>
     </row>
-    <row r="37" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A37" s="14" t="s">
         <v>109</v>
       </c>
@@ -7648,7 +7648,7 @@
         <v>56830</v>
       </c>
     </row>
-    <row r="38" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A38" s="14" t="s">
         <v>111</v>
       </c>
@@ -7801,7 +7801,7 @@
         <v>158058</v>
       </c>
     </row>
-    <row r="39" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A39" s="14" t="s">
         <v>113</v>
       </c>
@@ -7950,7 +7950,7 @@
         <v>26639</v>
       </c>
     </row>
-    <row r="40" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A40" s="64" t="s">
         <v>282</v>
       </c>
@@ -8099,7 +8099,7 @@
         <v>71038</v>
       </c>
     </row>
-    <row r="41" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A41" s="14" t="s">
         <v>115</v>
       </c>
@@ -8248,7 +8248,7 @@
         <v>31967</v>
       </c>
     </row>
-    <row r="42" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A42" s="14" t="s">
         <v>117</v>
       </c>
@@ -8401,7 +8401,7 @@
         <v>174041</v>
       </c>
     </row>
-    <row r="43" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A43" s="64" t="s">
         <v>284</v>
       </c>
@@ -8550,7 +8550,7 @@
         <v>42622</v>
       </c>
     </row>
-    <row r="44" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A44" s="14" t="s">
         <v>119</v>
       </c>
@@ -8699,7 +8699,7 @@
         <v>133195</v>
       </c>
     </row>
-    <row r="45" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A45" s="14" t="s">
         <v>121</v>
       </c>
@@ -8852,7 +8852,7 @@
         <v>131420</v>
       </c>
     </row>
-    <row r="46" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A46" s="14" t="s">
         <v>123</v>
       </c>
@@ -9001,7 +9001,7 @@
         <v>35519</v>
       </c>
     </row>
-    <row r="47" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A47" s="14" t="s">
         <v>125</v>
       </c>
@@ -9150,7 +9150,7 @@
         <v>26639</v>
       </c>
     </row>
-    <row r="48" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A48" s="14" t="s">
         <v>127</v>
       </c>
@@ -9301,7 +9301,7 @@
         <v>367617</v>
       </c>
     </row>
-    <row r="49" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A49" s="64" t="s">
         <v>286</v>
       </c>
@@ -9452,7 +9452,7 @@
         <v>204233</v>
       </c>
     </row>
-    <row r="50" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A50" s="14" t="s">
         <v>129</v>
       </c>
@@ -9605,7 +9605,7 @@
         <v>495483</v>
       </c>
     </row>
-    <row r="51" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A51" s="64" t="s">
         <v>345</v>
       </c>
@@ -9754,7 +9754,7 @@
         <v>33827</v>
       </c>
     </row>
-    <row r="52" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A52" s="64" t="s">
         <v>288</v>
       </c>
@@ -9909,7 +9909,7 @@
         <v>875539</v>
       </c>
     </row>
-    <row r="53" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A53" s="64" t="s">
         <v>290</v>
       </c>
@@ -10062,7 +10062,7 @@
         <v>1145484</v>
       </c>
     </row>
-    <row r="54" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A54" s="14" t="s">
         <v>292</v>
       </c>
@@ -10213,7 +10213,7 @@
         <v>204233</v>
       </c>
     </row>
-    <row r="55" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A55" s="14" t="s">
         <v>325</v>
       </c>
@@ -10362,7 +10362,7 @@
         <v>26639</v>
       </c>
     </row>
-    <row r="56" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A56" s="64" t="s">
         <v>293</v>
       </c>
@@ -10517,7 +10517,7 @@
         <v>871977</v>
       </c>
     </row>
-    <row r="57" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A57" s="14" t="s">
         <v>132</v>
       </c>
@@ -10666,7 +10666,7 @@
         <v>53278</v>
       </c>
     </row>
-    <row r="58" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A58" s="14" t="s">
         <v>134</v>
       </c>
@@ -10815,7 +10815,7 @@
         <v>35519</v>
       </c>
     </row>
-    <row r="59" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A59" s="14" t="s">
         <v>136</v>
       </c>
@@ -10964,7 +10964,7 @@
         <v>71038</v>
       </c>
     </row>
-    <row r="60" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A60" s="64" t="s">
         <v>295</v>
       </c>
@@ -11115,7 +11115,7 @@
         <v>120932</v>
       </c>
     </row>
-    <row r="61" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A61" s="64" t="s">
         <v>297</v>
       </c>
@@ -11272,7 +11272,7 @@
         <v>766378</v>
       </c>
     </row>
-    <row r="62" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A62" s="64" t="s">
         <v>347</v>
       </c>
@@ -11421,7 +11421,7 @@
         <v>26639</v>
       </c>
     </row>
-    <row r="63" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A63" s="14" t="s">
         <v>138</v>
       </c>
@@ -11572,7 +11572,7 @@
         <v>213113</v>
       </c>
     </row>
-    <row r="64" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A64" s="14" t="s">
         <v>140</v>
       </c>
@@ -11721,7 +11721,7 @@
         <v>35519</v>
       </c>
     </row>
-    <row r="65" spans="1:57" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:57" s="8" customFormat="1" ht="15" thickBot="1">
       <c r="A65" s="14" t="s">
         <v>142</v>
       </c>
@@ -11872,7 +11872,7 @@
         <v>245079</v>
       </c>
     </row>
-    <row r="66" spans="1:57" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:57" s="8" customFormat="1" ht="15" thickBot="1">
       <c r="A66" s="14" t="s">
         <v>327</v>
       </c>
@@ -12023,7 +12023,7 @@
         <v>69261</v>
       </c>
     </row>
-    <row r="67" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A67" s="14" t="s">
         <v>144</v>
       </c>
@@ -12172,7 +12172,7 @@
         <v>53278</v>
       </c>
     </row>
-    <row r="68" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A68" s="14" t="s">
         <v>146</v>
       </c>
@@ -12321,7 +12321,7 @@
         <v>8422</v>
       </c>
     </row>
-    <row r="69" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A69" s="14" t="s">
         <v>148</v>
       </c>
@@ -12470,7 +12470,7 @@
         <v>106556</v>
       </c>
     </row>
-    <row r="70" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A70" s="14" t="s">
         <v>150</v>
       </c>
@@ -12619,7 +12619,7 @@
         <v>42622</v>
       </c>
     </row>
-    <row r="71" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A71" s="14" t="s">
         <v>152</v>
       </c>
@@ -12768,7 +12768,7 @@
         <v>26639</v>
       </c>
     </row>
-    <row r="72" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A72" s="64" t="s">
         <v>299</v>
       </c>
@@ -12919,7 +12919,7 @@
         <v>97677</v>
       </c>
     </row>
-    <row r="73" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A73" s="14" t="s">
         <v>154</v>
       </c>
@@ -13072,7 +13072,7 @@
         <v>866657</v>
       </c>
     </row>
-    <row r="74" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A74" s="14" t="s">
         <v>156</v>
       </c>
@@ -13223,7 +13223,7 @@
         <v>809826</v>
       </c>
     </row>
-    <row r="75" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A75" s="14" t="s">
         <v>158</v>
       </c>
@@ -13372,7 +13372,7 @@
         <v>26639</v>
       </c>
     </row>
-    <row r="76" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A76" s="14" t="s">
         <v>329</v>
       </c>
@@ -13521,7 +13521,7 @@
         <v>8422</v>
       </c>
     </row>
-    <row r="77" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A77" s="14" t="s">
         <v>160</v>
       </c>
@@ -13670,7 +13670,7 @@
         <v>35519</v>
       </c>
     </row>
-    <row r="78" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A78" s="14" t="s">
         <v>162</v>
       </c>
@@ -13819,7 +13819,7 @@
         <v>42622</v>
       </c>
     </row>
-    <row r="79" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A79" s="14" t="s">
         <v>164</v>
       </c>
@@ -13970,7 +13970,7 @@
         <v>58606</v>
       </c>
     </row>
-    <row r="80" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A80" s="63" t="s">
         <v>166</v>
       </c>
@@ -14121,7 +14121,7 @@
         <v>58606</v>
       </c>
     </row>
-    <row r="81" spans="1:57" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:57" s="8" customFormat="1" ht="15" thickBot="1">
       <c r="A81" s="64" t="s">
         <v>301</v>
       </c>
@@ -14270,7 +14270,7 @@
         <v>63934</v>
       </c>
     </row>
-    <row r="82" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A82" s="14" t="s">
         <v>168</v>
       </c>
@@ -14419,7 +14419,7 @@
         <v>35519</v>
       </c>
     </row>
-    <row r="83" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A83" s="14" t="s">
         <v>170</v>
       </c>
@@ -14570,7 +14570,7 @@
         <v>248632</v>
       </c>
     </row>
-    <row r="84" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A84" s="14" t="s">
         <v>331</v>
       </c>
@@ -14719,7 +14719,7 @@
         <v>85244</v>
       </c>
     </row>
-    <row r="85" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A85" s="14" t="s">
         <v>172</v>
       </c>
@@ -14870,7 +14870,7 @@
         <v>644669</v>
       </c>
     </row>
-    <row r="86" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A86" s="14" t="s">
         <v>333</v>
       </c>
@@ -15019,7 +15019,7 @@
         <v>42622</v>
       </c>
     </row>
-    <row r="87" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A87" s="14" t="s">
         <v>174</v>
       </c>
@@ -15168,7 +15168,7 @@
         <v>42622</v>
       </c>
     </row>
-    <row r="88" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A88" s="14" t="s">
         <v>176</v>
       </c>
@@ -15317,7 +15317,7 @@
         <v>26639</v>
       </c>
     </row>
-    <row r="89" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A89" s="14" t="s">
         <v>178</v>
       </c>
@@ -15466,7 +15466,7 @@
         <v>106557</v>
       </c>
     </row>
-    <row r="90" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A90" s="14" t="s">
         <v>180</v>
       </c>
@@ -15615,7 +15615,7 @@
         <v>42622</v>
       </c>
     </row>
-    <row r="91" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A91" s="64" t="s">
         <v>303</v>
       </c>
@@ -15764,7 +15764,7 @@
         <v>35519</v>
       </c>
     </row>
-    <row r="92" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A92" s="14" t="s">
         <v>182</v>
       </c>
@@ -15913,7 +15913,7 @@
         <v>26639</v>
       </c>
     </row>
-    <row r="93" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A93" s="14" t="s">
         <v>335</v>
       </c>
@@ -16062,7 +16062,7 @@
         <v>16844</v>
       </c>
     </row>
-    <row r="94" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A94" s="14" t="s">
         <v>184</v>
       </c>
@@ -16211,7 +16211,7 @@
         <v>63934</v>
       </c>
     </row>
-    <row r="95" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A95" s="14" t="s">
         <v>186</v>
       </c>
@@ -16362,7 +16362,7 @@
         <v>319670</v>
       </c>
     </row>
-    <row r="96" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A96" s="64" t="s">
         <v>305</v>
       </c>
@@ -16513,7 +16513,7 @@
         <v>1500675</v>
       </c>
     </row>
-    <row r="97" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A97" s="14" t="s">
         <v>188</v>
       </c>
@@ -16664,7 +16664,7 @@
         <v>497265</v>
       </c>
     </row>
-    <row r="98" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A98" s="14" t="s">
         <v>190</v>
       </c>
@@ -16815,7 +16815,7 @@
         <v>49268</v>
       </c>
     </row>
-    <row r="99" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A99" s="14" t="s">
         <v>192</v>
       </c>
@@ -16964,7 +16964,7 @@
         <v>26639</v>
       </c>
     </row>
-    <row r="100" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A100" s="14" t="s">
         <v>194</v>
       </c>
@@ -17113,7 +17113,7 @@
         <v>79917</v>
       </c>
     </row>
-    <row r="101" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A101" s="14" t="s">
         <v>337</v>
       </c>
@@ -17262,7 +17262,7 @@
         <v>26639</v>
       </c>
     </row>
-    <row r="102" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A102" s="14" t="s">
         <v>196</v>
       </c>
@@ -17413,7 +17413,7 @@
         <v>62158</v>
       </c>
     </row>
-    <row r="103" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A103" s="14" t="s">
         <v>198</v>
       </c>
@@ -17564,7 +17564,7 @@
         <v>266388</v>
       </c>
     </row>
-    <row r="104" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A104" s="64" t="s">
         <v>349</v>
       </c>
@@ -17713,7 +17713,7 @@
         <v>142076</v>
       </c>
     </row>
-    <row r="105" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A105" s="14" t="s">
         <v>200</v>
       </c>
@@ -17866,7 +17866,7 @@
         <v>131419</v>
       </c>
     </row>
-    <row r="106" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A106" s="14" t="s">
         <v>202</v>
       </c>
@@ -18017,7 +18017,7 @@
         <v>69261</v>
       </c>
     </row>
-    <row r="107" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A107" s="14" t="s">
         <v>204</v>
       </c>
@@ -18166,7 +18166,7 @@
         <v>53278</v>
       </c>
     </row>
-    <row r="108" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A108" s="14" t="s">
         <v>339</v>
       </c>
@@ -18315,7 +18315,7 @@
         <v>26639</v>
       </c>
     </row>
-    <row r="109" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A109" s="64" t="s">
         <v>307</v>
       </c>
@@ -18466,7 +18466,7 @@
         <v>69261</v>
       </c>
     </row>
-    <row r="110" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A110" s="14" t="s">
         <v>206</v>
       </c>
@@ -18615,7 +18615,7 @@
         <v>26639</v>
       </c>
     </row>
-    <row r="111" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A111" s="64" t="s">
         <v>309</v>
       </c>
@@ -18764,7 +18764,7 @@
         <v>26639</v>
       </c>
     </row>
-    <row r="112" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A112" s="14" t="s">
         <v>208</v>
       </c>
@@ -18915,7 +18915,7 @@
         <v>458189</v>
       </c>
     </row>
-    <row r="113" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A113" s="14" t="s">
         <v>210</v>
       </c>
@@ -19068,7 +19068,7 @@
         <v>184697</v>
       </c>
     </row>
-    <row r="114" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A114" s="14" t="s">
         <v>212</v>
       </c>
@@ -19219,7 +19219,7 @@
         <v>538103</v>
       </c>
     </row>
-    <row r="115" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A115" s="14" t="s">
         <v>214</v>
       </c>
@@ -19368,7 +19368,7 @@
         <v>8880</v>
       </c>
     </row>
-    <row r="116" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A116" s="64" t="s">
         <v>311</v>
       </c>
@@ -19519,7 +19519,7 @@
         <v>381829</v>
       </c>
     </row>
-    <row r="117" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A117" s="14" t="s">
         <v>216</v>
       </c>
@@ -19668,7 +19668,7 @@
         <v>35519</v>
       </c>
     </row>
-    <row r="118" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A118" s="14" t="s">
         <v>218</v>
       </c>
@@ -19819,7 +19819,7 @@
         <v>175817</v>
       </c>
     </row>
-    <row r="119" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A119" s="14" t="s">
         <v>220</v>
       </c>
@@ -19968,7 +19968,7 @@
         <v>35519</v>
       </c>
     </row>
-    <row r="120" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A120" s="14" t="s">
         <v>222</v>
       </c>
@@ -20117,7 +20117,7 @@
         <v>53278</v>
       </c>
     </row>
-    <row r="121" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A121" s="14" t="s">
         <v>224</v>
       </c>
@@ -20266,7 +20266,7 @@
         <v>42622</v>
       </c>
     </row>
-    <row r="122" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A122" s="14" t="s">
         <v>226</v>
       </c>
@@ -20419,7 +20419,7 @@
         <v>930584</v>
       </c>
     </row>
-    <row r="123" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A123" s="14" t="s">
         <v>228</v>
       </c>
@@ -20568,7 +20568,7 @@
         <v>26639</v>
       </c>
     </row>
-    <row r="124" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A124" s="64" t="s">
         <v>313</v>
       </c>
@@ -20719,7 +20719,7 @@
         <v>530954</v>
       </c>
     </row>
-    <row r="125" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A125" s="14" t="s">
         <v>230</v>
       </c>
@@ -20868,7 +20868,7 @@
         <v>106556</v>
       </c>
     </row>
-    <row r="126" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A126" s="14" t="s">
         <v>232</v>
       </c>
@@ -21019,7 +21019,7 @@
         <v>62157</v>
       </c>
     </row>
-    <row r="127" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A127" s="14" t="s">
         <v>234</v>
       </c>
@@ -21168,7 +21168,7 @@
         <v>35519</v>
       </c>
     </row>
-    <row r="128" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A128" s="14" t="s">
         <v>236</v>
       </c>
@@ -21319,7 +21319,7 @@
         <v>62158</v>
       </c>
     </row>
-    <row r="129" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A129" s="14" t="s">
         <v>238</v>
       </c>
@@ -21470,7 +21470,7 @@
         <v>62158</v>
       </c>
     </row>
-    <row r="130" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A130" s="14" t="s">
         <v>240</v>
       </c>
@@ -21619,7 +21619,7 @@
         <v>42622</v>
       </c>
     </row>
-    <row r="131" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A131" s="14" t="s">
         <v>242</v>
       </c>
@@ -21768,7 +21768,7 @@
         <v>71038</v>
       </c>
     </row>
-    <row r="132" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A132" s="14" t="s">
         <v>244</v>
       </c>
@@ -21917,7 +21917,7 @@
         <v>35519</v>
       </c>
     </row>
-    <row r="133" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A133" s="14" t="s">
         <v>341</v>
       </c>
@@ -22068,7 +22068,7 @@
         <v>78141</v>
       </c>
     </row>
-    <row r="134" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A134" s="14" t="s">
         <v>246</v>
       </c>
@@ -22217,7 +22217,7 @@
         <v>213114</v>
       </c>
     </row>
-    <row r="135" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A135" s="14" t="s">
         <v>248</v>
       </c>
@@ -22370,7 +22370,7 @@
         <v>218440</v>
       </c>
     </row>
-    <row r="136" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A136" s="64" t="s">
         <v>315</v>
       </c>
@@ -22519,7 +22519,7 @@
         <v>106557</v>
       </c>
     </row>
-    <row r="137" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A137" s="64" t="s">
         <v>317</v>
       </c>
@@ -22674,7 +22674,7 @@
         <v>4553564</v>
       </c>
     </row>
-    <row r="138" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A138" s="14" t="s">
         <v>250</v>
       </c>
@@ -22825,7 +22825,7 @@
         <v>319670</v>
       </c>
     </row>
-    <row r="139" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A139" s="14" t="s">
         <v>252</v>
       </c>
@@ -22974,7 +22974,7 @@
         <v>53278</v>
       </c>
     </row>
-    <row r="140" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A140" s="64" t="s">
         <v>319</v>
       </c>
@@ -23123,7 +23123,7 @@
         <v>53278</v>
       </c>
     </row>
-    <row r="141" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A141" s="14" t="s">
         <v>254</v>
       </c>
@@ -23272,7 +23272,7 @@
         <v>26639</v>
       </c>
     </row>
-    <row r="142" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A142" s="14" t="s">
         <v>256</v>
       </c>
@@ -23423,7 +23423,7 @@
         <v>149178</v>
       </c>
     </row>
-    <row r="143" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A143" s="14" t="s">
         <v>258</v>
       </c>
@@ -23572,7 +23572,7 @@
         <v>340976</v>
       </c>
     </row>
-    <row r="144" spans="1:57" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:57" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A144" s="14" t="s">
         <v>260</v>
       </c>
@@ -23721,7 +23721,7 @@
         <v>95901</v>
       </c>
     </row>
-    <row r="145" spans="1:59" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:59" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A145" s="14" t="s">
         <v>262</v>
       </c>
@@ -23870,7 +23870,7 @@
         <v>42622</v>
       </c>
     </row>
-    <row r="146" spans="1:59" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:59" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A146" s="14" t="s">
         <v>264</v>
       </c>
@@ -24019,7 +24019,7 @@
         <v>26639</v>
       </c>
     </row>
-    <row r="147" spans="1:59" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:59" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A147" s="14" t="s">
         <v>266</v>
       </c>
@@ -24168,7 +24168,7 @@
         <v>26639</v>
       </c>
     </row>
-    <row r="148" spans="1:59" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:59" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A148" s="14" t="s">
         <v>268</v>
       </c>
@@ -24319,7 +24319,7 @@
         <v>62158</v>
       </c>
     </row>
-    <row r="149" spans="1:59" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:59" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A149" s="14" t="s">
         <v>270</v>
       </c>
@@ -24470,7 +24470,7 @@
         <v>95900</v>
       </c>
     </row>
-    <row r="150" spans="1:59" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:59" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A150" s="14"/>
       <c r="B150" s="14"/>
       <c r="C150" s="5"/>
@@ -24529,7 +24529,7 @@
       <c r="BD150" s="2"/>
       <c r="BE150" s="4"/>
     </row>
-    <row r="151" spans="1:59" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:59" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A151" s="14"/>
       <c r="B151" s="14"/>
       <c r="C151" s="5"/>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:59" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:59" s="8" customFormat="1" ht="15" thickBot="1">
       <c r="A152" s="62" t="s">
         <v>4</v>
       </c>
@@ -24897,7 +24897,7 @@
       <c r="BF152" s="25"/>
       <c r="BG152" s="25"/>
     </row>
-    <row r="153" spans="1:59" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:59" s="1" customFormat="1" ht="15" thickBot="1">
       <c r="A153" s="59" t="s">
         <v>30</v>
       </c>
@@ -24964,7 +24964,7 @@
       <c r="BD153" s="47"/>
       <c r="BE153" s="74"/>
     </row>
-    <row r="154" spans="1:59" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:59" s="1" customFormat="1" ht="15" thickBot="1">
       <c r="A154" s="60" t="s">
         <v>31</v>
       </c>
@@ -25031,7 +25031,7 @@
       <c r="BD154" s="47"/>
       <c r="BE154" s="75"/>
     </row>
-    <row r="155" spans="1:59" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:59" s="1" customFormat="1" ht="15" thickBot="1">
       <c r="A155" s="60" t="s">
         <v>32</v>
       </c>
@@ -25098,7 +25098,7 @@
       <c r="BD155" s="47"/>
       <c r="BE155" s="75"/>
     </row>
-    <row r="156" spans="1:59" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:59" s="1" customFormat="1" ht="15" thickBot="1">
       <c r="A156" s="60" t="s">
         <v>55</v>
       </c>
@@ -25165,7 +25165,7 @@
       <c r="BD156" s="47"/>
       <c r="BE156" s="75"/>
     </row>
-    <row r="157" spans="1:59" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:59" s="1" customFormat="1" ht="15" thickBot="1">
       <c r="A157" s="60" t="s">
         <v>60</v>
       </c>
@@ -25232,7 +25232,7 @@
       <c r="BD157" s="47"/>
       <c r="BE157" s="75"/>
     </row>
-    <row r="158" spans="1:59" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:59" s="1" customFormat="1" ht="15" thickBot="1">
       <c r="A158" s="60" t="s">
         <v>53</v>
       </c>
@@ -25299,7 +25299,7 @@
       <c r="BD158" s="47"/>
       <c r="BE158" s="75"/>
     </row>
-    <row r="159" spans="1:59" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:59" s="1" customFormat="1" ht="15" thickBot="1">
       <c r="A159" s="60" t="s">
         <v>54</v>
       </c>
@@ -25366,7 +25366,7 @@
       <c r="BD159" s="47"/>
       <c r="BE159" s="75"/>
     </row>
-    <row r="160" spans="1:59" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:59" s="1" customFormat="1" ht="15" thickBot="1">
       <c r="A160" s="60" t="s">
         <v>48</v>
       </c>
@@ -25433,7 +25433,7 @@
       <c r="BD160" s="47"/>
       <c r="BE160" s="75"/>
     </row>
-    <row r="161" spans="1:57" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:57" s="1" customFormat="1" ht="15" thickBot="1">
       <c r="A161" s="60" t="s">
         <v>49</v>
       </c>
@@ -25500,7 +25500,7 @@
       <c r="BD161" s="47"/>
       <c r="BE161" s="75"/>
     </row>
-    <row r="162" spans="1:57" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:57" s="1" customFormat="1" ht="15" thickBot="1">
       <c r="A162" s="60" t="s">
         <v>50</v>
       </c>
@@ -25567,7 +25567,7 @@
       <c r="BD162" s="47"/>
       <c r="BE162" s="75"/>
     </row>
-    <row r="163" spans="1:57" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:57" s="1" customFormat="1" ht="15" thickBot="1">
       <c r="A163" s="60" t="s">
         <v>51</v>
       </c>
@@ -25634,7 +25634,7 @@
       <c r="BD163" s="47"/>
       <c r="BE163" s="75"/>
     </row>
-    <row r="164" spans="1:57" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:57" s="1" customFormat="1" ht="15" thickBot="1">
       <c r="A164" s="60" t="s">
         <v>52</v>
       </c>
@@ -25701,7 +25701,7 @@
       <c r="BD164" s="47"/>
       <c r="BE164" s="75"/>
     </row>
-    <row r="165" spans="1:57" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:57" s="1" customFormat="1" ht="15" thickBot="1">
       <c r="A165" s="60" t="s">
         <v>33</v>
       </c>
@@ -25768,7 +25768,7 @@
       <c r="BD165" s="47"/>
       <c r="BE165" s="75"/>
     </row>
-    <row r="166" spans="1:57" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:57" s="1" customFormat="1" ht="15" thickBot="1">
       <c r="A166" s="60" t="s">
         <v>34</v>
       </c>
@@ -25835,7 +25835,7 @@
       <c r="BD166" s="47"/>
       <c r="BE166" s="75"/>
     </row>
-    <row r="167" spans="1:57" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:57" s="1" customFormat="1" ht="15" thickBot="1">
       <c r="A167" s="60" t="s">
         <v>59</v>
       </c>
@@ -25902,7 +25902,7 @@
       <c r="BD167" s="47"/>
       <c r="BE167" s="75"/>
     </row>
-    <row r="168" spans="1:57" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:57" s="1" customFormat="1" ht="15" thickBot="1">
       <c r="A168" s="60" t="s">
         <v>35</v>
       </c>
@@ -25969,7 +25969,7 @@
       <c r="BD168" s="47"/>
       <c r="BE168" s="75"/>
     </row>
-    <row r="169" spans="1:57" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:57" s="1" customFormat="1" ht="15" thickBot="1">
       <c r="A169" s="60" t="s">
         <v>36</v>
       </c>
@@ -26036,7 +26036,7 @@
       <c r="BD169" s="47"/>
       <c r="BE169" s="75"/>
     </row>
-    <row r="170" spans="1:57" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:57" s="1" customFormat="1" ht="15" thickBot="1">
       <c r="A170" s="60" t="s">
         <v>37</v>
       </c>
@@ -26103,7 +26103,7 @@
       <c r="BD170" s="47"/>
       <c r="BE170" s="75"/>
     </row>
-    <row r="171" spans="1:57" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:57" s="1" customFormat="1" ht="15" thickBot="1">
       <c r="A171" s="61" t="s">
         <v>45</v>
       </c>
@@ -26170,7 +26170,7 @@
       <c r="BD171" s="47"/>
       <c r="BE171" s="75"/>
     </row>
-    <row r="172" spans="1:57" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:57" s="1" customFormat="1" ht="15" thickBot="1">
       <c r="A172" s="61" t="s">
         <v>46</v>
       </c>
@@ -26237,7 +26237,7 @@
       <c r="BD172" s="47"/>
       <c r="BE172" s="75"/>
     </row>
-    <row r="173" spans="1:57" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:57" s="1" customFormat="1" ht="15" thickBot="1">
       <c r="A173" s="61" t="s">
         <v>47</v>
       </c>
@@ -26304,7 +26304,7 @@
       <c r="BD173" s="47"/>
       <c r="BE173" s="75"/>
     </row>
-    <row r="174" spans="1:57" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:57" s="1" customFormat="1" ht="15" thickBot="1">
       <c r="A174" s="61" t="s">
         <v>38</v>
       </c>
@@ -26371,7 +26371,7 @@
       <c r="BD174" s="47"/>
       <c r="BE174" s="75"/>
     </row>
-    <row r="175" spans="1:57" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:57" s="1" customFormat="1" ht="15" thickBot="1">
       <c r="A175" s="61" t="s">
         <v>56</v>
       </c>
@@ -26438,7 +26438,7 @@
       <c r="BD175" s="47"/>
       <c r="BE175" s="75"/>
     </row>
-    <row r="176" spans="1:57" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:57" s="1" customFormat="1" ht="15" thickBot="1">
       <c r="A176" s="61" t="s">
         <v>57</v>
       </c>
@@ -26505,7 +26505,7 @@
       <c r="BD176" s="47"/>
       <c r="BE176" s="75"/>
     </row>
-    <row r="177" spans="1:57" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:57" s="1" customFormat="1" ht="15" thickBot="1">
       <c r="A177" s="61" t="s">
         <v>39</v>
       </c>
@@ -26572,7 +26572,7 @@
       <c r="BD177" s="47"/>
       <c r="BE177" s="75"/>
     </row>
-    <row r="178" spans="1:57" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:57" s="1" customFormat="1" ht="15" thickBot="1">
       <c r="A178" s="61" t="s">
         <v>40</v>
       </c>
@@ -26639,7 +26639,7 @@
       <c r="BD178" s="47"/>
       <c r="BE178" s="76"/>
     </row>
-    <row r="179" spans="1:57" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:57" s="1" customFormat="1" ht="15" thickBot="1">
       <c r="A179" s="61" t="s">
         <v>58</v>
       </c>
@@ -26706,7 +26706,7 @@
       </c>
       <c r="BE179" s="4"/>
     </row>
-    <row r="180" spans="1:57" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:57" s="1" customFormat="1" ht="15" thickBot="1">
       <c r="A180" s="66" t="s">
         <v>5</v>
       </c>
@@ -26770,7 +26770,7 @@
         <v>27903942</v>
       </c>
     </row>
-    <row r="181" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:57">
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
@@ -26779,7 +26779,7 @@
       <c r="J181" s="1"/>
       <c r="K181" s="1"/>
     </row>
-    <row r="182" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:57">
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
@@ -26795,7 +26795,7 @@
       <c r="AL182" s="1"/>
       <c r="BE182" s="1"/>
     </row>
-    <row r="183" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:57">
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
@@ -26831,7 +26831,6 @@
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="20" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
